--- a/documents/2023-20 Entrega 1 Pry - Declaración de la contribución.xlsx
+++ b/documents/2023-20 Entrega 1 Pry - Declaración de la contribución.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camelo\Proyecto1Sistrans\B5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6ADEDB-7CFF-4728-A385-D068AC4700F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CEC638-6FC6-40B7-898D-7184B163C69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F803696E-E5CC-470A-8D77-38C02B7EB843}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F803696E-E5CC-470A-8D77-38C02B7EB843}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
   <si>
     <t>Integrante 1</t>
   </si>
@@ -159,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +235,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -278,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -307,6 +315,7 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09361F38-CEDE-46D2-A383-C99660BAC758}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,91 +790,158 @@
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -873,7 +949,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -881,7 +957,7 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
@@ -889,7 +965,7 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
@@ -897,7 +973,7 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>0</v>
       </c>
@@ -911,7 +987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>30</v>
       </c>
